--- a/localized/en-us/games/books/bookdata/en_340/en_340.xlsx
+++ b/localized/en-us/games/books/bookdata/en_340/en_340.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/@Enuma_Share/@Project_XPRIZE/Resources/Books/Phase 3 Books/books in progress (shared with partners)/340 /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLEXP-Team-KitkitSchool-Hindi-Assets-MainApp\localized\en-us\games\books\bookdata\en_340\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DBCE7F-DA30-4DF8-BF99-52095EF49B0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22140" yWindow="4280" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,37 +30,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Cooking Beans with Neema</t>
-  </si>
-  <si>
-    <t>Neema can cook beans.</t>
-  </si>
-  <si>
-    <t>Neema cleans dirt from the beans.</t>
-  </si>
-  <si>
-    <t>Neema washes the beans.</t>
-  </si>
-  <si>
-    <t>Neema boils the beans.</t>
-  </si>
-  <si>
-    <t>Neema fries onions.</t>
-  </si>
-  <si>
     <t>She adds the beans and salt.</t>
   </si>
   <si>
-    <t xml:space="preserve">Neema serves the beans.  </t>
-  </si>
-  <si>
     <t>The beans taste good!</t>
+  </si>
+  <si>
+    <t>Cooking Beans with Priya</t>
+  </si>
+  <si>
+    <t>Priya can cook beans.</t>
+  </si>
+  <si>
+    <t>Priya cleans dirt from the beans.</t>
+  </si>
+  <si>
+    <t>Priya washes the beans.</t>
+  </si>
+  <si>
+    <t>Priya boils the beans.</t>
+  </si>
+  <si>
+    <t>Priya fries onions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priya serves the beans.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -100,6 +101,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -367,58 +371,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
